--- a/test1.xlsx
+++ b/test1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
   <si>
     <t>Fromularz Testów player Events</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>PlayerInitialized</t>
-  </si>
-  <si>
-    <t>Sukces</t>
   </si>
   <si>
     <t>Sprawdzenie licencji DRM</t>
@@ -291,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +313,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81B622"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -335,12 +326,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -705,202 +695,175 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -917,202 +880,175 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>48</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1129,203 +1065,176 @@
       <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>15</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>21</v>
-      </c>
-      <c r="D44" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>27</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>30</v>
-      </c>
-      <c r="D47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>39</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>42</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
         <v>44</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>45</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>48</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>51</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>54</v>
-      </c>
-      <c r="D54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1376,78 +1285,78 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
